--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3CD67-6210-446D-9248-0AC75E1A130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3B20F-DB65-4DFF-8CE0-1F35165416EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -77,18 +77,6 @@
     <t>爆发混沌之力，吸食3m附近食物</t>
   </si>
   <si>
-    <t>扩散吞噬3级</t>
-  </si>
-  <si>
-    <t>爆发混沌之力，吸食4m附近食物</t>
-  </si>
-  <si>
-    <t>扩散吞噬4级</t>
-  </si>
-  <si>
-    <t>爆发混沌之力，吸食5m附近食物</t>
-  </si>
-  <si>
     <t>随机喷射1级</t>
   </si>
   <si>
@@ -101,12 +89,6 @@
     <t>随机方向间隔发射2颗子弹</t>
   </si>
   <si>
-    <t>随机喷射3级</t>
-  </si>
-  <si>
-    <t>随机方向间隔发射3颗子弹</t>
-  </si>
-  <si>
     <t>参数1</t>
   </si>
   <si>
@@ -219,14 +201,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>随机喷射4级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机方向间隔发射4颗子弹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间(毫秒)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -255,30 +229,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1,5001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>500</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20000,10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000,10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AE_RangeDamage</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -367,6 +321,22 @@
   </si>
   <si>
     <t>*AETriggerPercentServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -811,30 +781,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="8" customWidth="1"/>
     <col min="15" max="15" width="16" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" style="8" customWidth="1"/>
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -849,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
@@ -861,31 +831,31 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -899,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
@@ -914,28 +884,28 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -958,37 +928,37 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>10001</v>
       </c>
@@ -996,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -1008,34 +978,34 @@
         <v>3000</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="F5" s="10"/>
       <c r="H5" s="6"/>
@@ -1043,17 +1013,17 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>10001</v>
       </c>
@@ -1061,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>16</v>
@@ -1073,34 +1043,34 @@
         <v>3000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="F7" s="10"/>
       <c r="H7" s="6"/>
@@ -1108,384 +1078,160 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="6"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>10002</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="N9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
-        <v>10001</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3000</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="6"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>88</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N17" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1503,21 +1249,21 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1529,66 +1275,66 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3B20F-DB65-4DFF-8CE0-1F35165416EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C474F14-B713-4AAB-A0AF-493AC23BACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1230,9 +1230,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N11" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="N11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C474F14-B713-4AAB-A0AF-493AC23BACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0301A-EDD4-488B-8EE1-9BFA4453AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -337,6 +337,34 @@
   </si>
   <si>
     <t>2,8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个区域范围持续伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_SphereDamageAura</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,5000,500,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -783,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1258,51 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0301A-EDD4-488B-8EE1-9BFA4453AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9280761-A28B-4B08-8A1C-07CE242BED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>某个区域范围持续伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1级</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -365,6 +361,22 @@
   </si>
   <si>
     <t>Circle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域范围持续伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +478,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -480,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -503,6 +521,19 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -822,7 +853,7 @@
     <col min="3" max="3" width="9.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="8" customWidth="1"/>
@@ -937,329 +968,240 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>10001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <v>3000</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>75</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="D6" s="6"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>57</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>57</v>
-      </c>
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
         <v>61</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>86</v>
+      <c r="B11" s="7">
+        <v>10002</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1267,26 +1209,26 @@
       <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>90</v>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2000</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>61</v>
@@ -1298,9 +1240,195 @@
         <v>57</v>
       </c>
       <c r="O11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>10002</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" s="7">
+      <c r="G17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9280761-A28B-4B08-8A1C-07CE242BED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FC63D1-4FE0-43E9-9575-3936D7ADCD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>##var</t>
   </si>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>治愈1级</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -340,10 +336,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1级</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -377,6 +369,38 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextSkill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -523,17 +547,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,34 +869,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="27.109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="16" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="27.125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16" style="8" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -878,46 +908,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -927,58 +960,61 @@
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>72</v>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -988,8 +1024,9 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -999,47 +1036,50 @@
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>10001</v>
       </c>
@@ -1047,389 +1087,389 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>3000</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="K5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="6"/>
+    <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="6"/>
+      <c r="G6" s="10"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="N6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>10001</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H7" s="7">
         <v>3000</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="M10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="F14" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2000</v>
+      <c r="F15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="J15" s="6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
+      <c r="Q15" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1447,19 +1487,19 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
@@ -1473,7 +1513,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
@@ -1496,7 +1536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1510,7 +1550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1524,7 +1564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FC63D1-4FE0-43E9-9575-3936D7ADCD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A309847-8F87-4861-BDFB-01C2A08F69E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -400,7 +400,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
+    <t>5,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +884,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1125,8 +1137,8 @@
       <c r="P5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="7">
-        <v>0</v>
+      <c r="Q5" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1193,8 +1205,8 @@
       <c r="P7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="7">
-        <v>0</v>
+      <c r="Q7" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1276,8 +1288,8 @@
       <c r="P10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="7">
-        <v>0</v>
+      <c r="Q10" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,8 +1338,8 @@
       <c r="P11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="6">
-        <v>0</v>
+      <c r="Q11" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -1397,8 +1409,8 @@
       <c r="P13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="7">
-        <v>0</v>
+      <c r="Q13" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>随机方向间隔发射1颗子弹</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
   <si>
     <t>SingleLine</t>
@@ -1291,7 +1294,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1566,17 +1569,17 @@
       <c r="G7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="4">
-        <v>2000</v>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>42</v>
@@ -1602,22 +1605,22 @@
         <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>42</v>
@@ -1631,22 +1634,22 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="4">
         <v>2000</v>
@@ -1658,7 +1661,7 @@
         <v>44</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>42</v>
@@ -1672,7 +1675,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1684,22 +1687,22 @@
         <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>42</v>
@@ -1741,7 +1744,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1755,50 +1758,50 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>34</v>
@@ -1806,13 +1809,13 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -78,13 +78,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>ESkillAbstractType</t>
-  </si>
-  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>ESkillIndicatorType</t>
   </si>
   <si>
     <t>(list#sep=,),float</t>
@@ -1293,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1374,25 +1368,25 @@
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>15</v>
@@ -1406,7 +1400,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1414,7 +1408,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1426,46 +1420,46 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" spans="2:14">
@@ -1476,242 +1470,242 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="4">
         <v>3000</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="N5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="2:14">
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H6" s="4">
         <v>3000</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="N6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="4">
         <v>2000</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="I10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1738,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1758,64 +1752,64 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -60,15 +60,18 @@
     <t>SkillIndicatorParams</t>
   </si>
   <si>
+    <t>ColliderParams</t>
+  </si>
+  <si>
+    <t>CastRange</t>
+  </si>
+  <si>
     <t>SkillHandler</t>
   </si>
   <si>
     <t>EffectConfigId</t>
   </si>
   <si>
-    <t>ColliderConfigId</t>
-  </si>
-  <si>
     <t>Damage</t>
   </si>
   <si>
@@ -84,6 +87,15 @@
     <t>(list#sep=,),float</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -117,15 +129,18 @@
     <t>技能指示器参数</t>
   </si>
   <si>
+    <t>碰撞体参数</t>
+  </si>
+  <si>
+    <t>施法距离</t>
+  </si>
+  <si>
     <t>行为</t>
   </si>
   <si>
     <t>特效</t>
   </si>
   <si>
-    <t>碰撞体</t>
-  </si>
-  <si>
     <t>伤害</t>
   </si>
   <si>
@@ -147,15 +162,21 @@
     <t>2</t>
   </si>
   <si>
+    <t>CircleColliderParams</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>SH_RangeDamage</t>
   </si>
   <si>
     <t>10001</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -168,6 +189,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>BoxColliderParams</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
@@ -187,6 +211,12 @@
   </si>
   <si>
     <t>3,3</t>
+  </si>
+  <si>
+    <t>PolygonColliderParams</t>
+  </si>
+  <si>
+    <t>-1,-1;-1,1;1,1;1,-1</t>
   </si>
   <si>
     <t>SH_Bullet</t>
@@ -469,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +823,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,16 +847,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -842,100 +866,101 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1285,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1297,21 +1322,23 @@
     <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="5" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="11" max="11" width="18" style="5" customWidth="1"/>
+    <col min="12" max="13" width="12.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.25" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1344,371 +1371,460 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="Q1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
+    <row r="2" s="4" customFormat="1" spans="1:17">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>15</v>
+      <c r="Q2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
+    <row r="3" s="4" customFormat="1" spans="1:17">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:17">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:17">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="2:14">
-      <c r="B5" s="4">
+    <row r="6" s="5" customFormat="1" spans="2:17">
+      <c r="B6" s="5">
         <v>10001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5">
         <v>3000</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="2:17">
+      <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>38</v>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="2:14">
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="8" spans="2:17">
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="4" t="s">
+      <c r="N11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="O11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>38</v>
+      <c r="Q11" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1738,7 +1854,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1752,64 +1868,64 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -57,9 +57,6 @@
     <t>SkillIndicatorType</t>
   </si>
   <si>
-    <t>SkillIndicatorParams</t>
-  </si>
-  <si>
     <t>ColliderParams</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=,),float</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -126,13 +120,10 @@
     <t>技能指示器类型</t>
   </si>
   <si>
-    <t>技能指示器参数</t>
-  </si>
-  <si>
     <t>碰撞体参数</t>
   </si>
   <si>
-    <t>施法距离</t>
+    <t>施法范围</t>
   </si>
   <si>
     <t>行为</t>
@@ -159,10 +150,46 @@
     <t>Range</t>
   </si>
   <si>
+    <t>CircleColliderParams</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>CircleColliderParams</t>
+    <t>SH_RangeDamage</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>扩散吞噬2级</t>
+  </si>
+  <si>
+    <t>爆发混沌之力，吸食3m附近食物</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>随机喷射1级</t>
+  </si>
+  <si>
+    <t>随机方向间隔发射1颗子弹</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>SingleLine</t>
   </si>
   <si>
     <t>1</t>
@@ -171,54 +198,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>SH_RangeDamage</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>扩散吞噬2级</t>
-  </si>
-  <si>
-    <t>爆发混沌之力，吸食3m附近食物</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>BoxColliderParams</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>随机喷射1级</t>
-  </si>
-  <si>
-    <t>随机方向间隔发射1颗子弹</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>SingleLine</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>PolygonColliderParams</t>
-  </si>
-  <si>
-    <t>-1,-1;-1,1;1,1;1,-1</t>
-  </si>
-  <si>
     <t>SH_Bullet</t>
   </si>
   <si>
@@ -256,9 +235,6 @@
   </si>
   <si>
     <t>Circle</t>
-  </si>
-  <si>
-    <t>5,2</t>
   </si>
   <si>
     <t>SH_SphereDamageAura</t>
@@ -1310,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1327,17 +1303,16 @@
     <col min="7" max="7" width="22.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18" style="5" customWidth="1"/>
-    <col min="12" max="13" width="12.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.25" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="5"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
+    <col min="11" max="12" width="12.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="21.25" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:17">
+    <row r="1" s="4" customFormat="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1368,11 +1343,11 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
       <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1382,60 +1357,54 @@
       <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:17">
+    <row r="3" s="4" customFormat="1" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1447,22 +1416,21 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:17">
+    <row r="4" s="4" customFormat="1" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1470,7 +1438,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1481,58 +1449,54 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:17">
+    <row r="5" s="4" customFormat="1" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="2:17">
+    <row r="6" s="5" customFormat="1" spans="2:16">
       <c r="B6" s="5">
         <v>10001</v>
       </c>
@@ -1540,290 +1504,269 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H6" s="5">
         <v>3000</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="P6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="2:17">
+    <row r="7" s="5" customFormat="1" spans="2:16">
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H7" s="5">
         <v>3000</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="O7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:16">
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H10" s="5">
         <v>2000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>45</v>
+      <c r="M10" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:16">
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1854,7 +1797,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1868,64 +1811,64 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -144,7 +144,7 @@
     <t>扩散吞噬1级</t>
   </si>
   <si>
-    <t>爆发混沌之力，吸食2m附近食物</t>
+    <t>以自身为中心的范围伤害</t>
   </si>
   <si>
     <t>Range</t>
@@ -153,25 +153,25 @@
     <t>CircleColliderParams</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Skill_RangeDamage</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>SH_RangeDamage</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>扩散吞噬2级</t>
   </si>
   <si>
-    <t>爆发混沌之力，吸食3m附近食物</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>10011</t>
@@ -183,7 +183,7 @@
     <t>随机喷射1级</t>
   </si>
   <si>
-    <t>随机方向间隔发射1颗子弹</t>
+    <t>发射1颗子弹</t>
   </si>
   <si>
     <t>500</t>
@@ -198,13 +198,13 @@
     <t>6</t>
   </si>
   <si>
-    <t>SH_Bullet</t>
+    <t>Skill_Bullet</t>
   </si>
   <si>
     <t>随机喷射2级</t>
   </si>
   <si>
-    <t>随机方向间隔发射2颗子弹</t>
+    <t>发射颗子弹</t>
   </si>
   <si>
     <t>10021</t>
@@ -219,7 +219,7 @@
     <t>添加治愈Buff</t>
   </si>
   <si>
-    <t>SH_AddBuff</t>
+    <t>Skill_AddBuff</t>
   </si>
   <si>
     <t>10031</t>
@@ -237,7 +237,7 @@
     <t>Circle</t>
   </si>
   <si>
-    <t>SH_SphereDamageAura</t>
+    <t>Skill_SphereDamageAura</t>
   </si>
   <si>
     <t>##事件</t>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>AE_RangeDamage</t>
-  </si>
-  <si>
-    <t>以自身为中心的范围伤害</t>
   </si>
   <si>
     <t>半径(万分比)</t>
@@ -1288,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1304,8 +1301,9 @@
     <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
-    <col min="11" max="12" width="12.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="5" customWidth="1"/>
     <col min="14" max="14" width="21.25" style="5" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="5" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="5" customWidth="1"/>
@@ -1537,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="2:16">
@@ -1548,16 +1546,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5">
         <v>3000</v>
@@ -1581,7 +1579,7 @@
         <v>43</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -1625,7 +1623,7 @@
         <v>43</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -1636,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>36</v>
@@ -1669,7 +1667,7 @@
         <v>43</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -1701,10 +1699,10 @@
         <v>40</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>63</v>
@@ -1713,7 +1711,7 @@
         <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -1724,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>36</v>
@@ -1757,7 +1755,7 @@
         <v>43</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1851,10 +1849,10 @@
         <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>34</v>
@@ -1862,13 +1860,13 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -69,6 +69,9 @@
     <t>EffectConfigId</t>
   </si>
   <si>
+    <t>DmgInterval</t>
+  </si>
+  <si>
     <t>Damage</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t>特效</t>
   </si>
   <si>
+    <t>伤害间隔(毫秒)</t>
+  </si>
+  <si>
     <t>伤害</t>
   </si>
   <si>
@@ -162,12 +168,12 @@
     <t>10001</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>扩散吞噬2级</t>
   </si>
   <si>
@@ -238,6 +244,9 @@
   </si>
   <si>
     <t>Skill_SphereDamageAura</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>##事件</t>
@@ -1283,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1306,11 +1315,12 @@
     <col min="13" max="13" width="11.5" style="5" customWidth="1"/>
     <col min="14" max="14" width="21.25" style="5" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="5"/>
+    <col min="16" max="16" width="11.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:16">
+    <row r="1" s="4" customFormat="1" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1355,31 +1365,34 @@
       <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="Q1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:16">
+    <row r="2" s="4" customFormat="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
@@ -1390,19 +1403,22 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:16">
+    <row r="3" s="4" customFormat="1" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1415,20 +1431,21 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:16">
+    <row r="4" s="4" customFormat="1" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1436,7 +1453,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1447,54 +1464,58 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:16">
+    <row r="5" s="4" customFormat="1" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="2:16">
+    <row r="6" s="5" customFormat="1" spans="2:17">
       <c r="B6" s="5">
         <v>10001</v>
       </c>
@@ -1502,260 +1523,278 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5">
         <v>3000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="2:16">
+    <row r="7" s="5" customFormat="1" spans="2:17">
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5">
         <v>3000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="P9" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:17">
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="5">
         <v>2000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="P10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:17">
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="P11" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1834,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1809,64 +1848,64 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -162,6 +162,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>0,0</t>
+  </si>
+  <si>
     <t>Skill_RangeDamage</t>
   </si>
   <si>
@@ -247,6 +250,24 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>前面扇形的一个攻击</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>SectorColliderParams</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t>##事件</t>
@@ -1292,29 +1313,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.6333333333333" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.3833333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.1333333333333" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="5" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.6333333333333" style="5" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.25" style="5" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="5" customWidth="1"/>
     <col min="14" max="14" width="21.25" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.8833333333333" style="5" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="5" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
     <col min="18" max="16384" width="9" style="5"/>
@@ -1546,20 +1567,23 @@
       <c r="K6" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="L6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="2:17">
@@ -1570,13 +1594,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>40</v>
@@ -1591,136 +1615,145 @@
         <v>42</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="5">
         <v>2000</v>
@@ -1732,69 +1765,125 @@
         <v>42</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="P10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+      <c r="O12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>47</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1823,18 +1912,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="26.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="18.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1848,50 +1937,50 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>36</v>
@@ -1899,13 +1988,13 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
